--- a/CodeSystem-dose-form-ontology-cs.xlsx
+++ b/CodeSystem-dose-form-ontology-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-12T11:10:09+00:00</t>
+    <t>2022-10-12T11:16:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
